--- a/2.Design/Template/Thong_tin_ds_giao_dich.xlsx
+++ b/2.Design/Template/Thong_tin_ds_giao_dich.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WMS\temp\file_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2.DoanLV4_Document\LogDez\1.Document\WMS_Documents\2.Design\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD9ADEC1-78B2-4FFC-8746-B931A5535057}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{088EF9FE-FB3C-4EB4-8AEC-2C5FDC14D2EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -537,7 +537,7 @@
   <cols>
     <col min="1" max="1" width="6" style="4" customWidth="1"/>
     <col min="2" max="2" width="26.453125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="17.6328125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16.90625" style="4" customWidth="1"/>
     <col min="4" max="4" width="17.90625" style="4" customWidth="1"/>
     <col min="5" max="5" width="16.26953125" style="4" customWidth="1"/>
     <col min="6" max="6" width="17.6328125" style="4" customWidth="1"/>

--- a/2.Design/Template/Thong_tin_ds_giao_dich.xlsx
+++ b/2.Design/Template/Thong_tin_ds_giao_dich.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2.DoanLV4_Document\LogDez\1.Document\WMS_Documents\2.Design\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{088EF9FE-FB3C-4EB4-8AEC-2C5FDC14D2EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74960155-E341-4133-8363-845F1AD2F7DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Danh sách giao dịch từ ${startDate} - ${endDate}</t>
   </si>
@@ -100,6 +100,15 @@
   </si>
   <si>
     <t>${item.receiveName}</t>
+  </si>
+  <si>
+    <t>Khách hàng cha</t>
+  </si>
+  <si>
+    <t>${item.parentReceiveName}</t>
+  </si>
+  <si>
+    <t>Khách hàng</t>
   </si>
 </sst>
 </file>
@@ -139,7 +148,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -152,8 +161,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -176,11 +191,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -197,21 +264,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -527,28 +612,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="6" style="4" customWidth="1"/>
-    <col min="2" max="2" width="26.453125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="16.90625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="17.90625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="16.26953125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="17.6328125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="9.54296875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="13" style="4" customWidth="1"/>
-    <col min="9" max="9" width="15.6328125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="12.453125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="17" customWidth="1"/>
+    <col min="2" max="2" width="22.7265625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.81640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17.36328125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="16.08984375" style="4" customWidth="1"/>
+    <col min="6" max="7" width="16.26953125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="9.54296875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="12.1796875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="12" style="4" customWidth="1"/>
+    <col min="11" max="11" width="10.1796875" style="4" customWidth="1"/>
+    <col min="12" max="12" width="13.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -561,110 +646,146 @@
       <c r="H1" s="11"/>
       <c r="I1" s="11"/>
       <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
     </row>
-    <row r="2" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="13"/>
+      <c r="G2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>16</v>
-      </c>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="10"/>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="9"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="6"/>
     </row>
-    <row r="4" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="I5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L5" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="9"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:J1"/>
+  <mergeCells count="12">
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/2.Design/Template/Thong_tin_ds_giao_dich.xlsx
+++ b/2.Design/Template/Thong_tin_ds_giao_dich.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2.DoanLV4_Document\LogDez\1.Document\WMS_Documents\2.Design\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74960155-E341-4133-8363-845F1AD2F7DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A3D0FD9-F460-47B9-A237-BAC95C84A05C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Danh sách giao dịch từ ${startDate} - ${endDate}</t>
   </si>
@@ -109,6 +109,12 @@
   </si>
   <si>
     <t>Khách hàng</t>
+  </si>
+  <si>
+    <t>Lý do</t>
+  </si>
+  <si>
+    <t>${item.reasonName}</t>
   </si>
 </sst>
 </file>
@@ -612,10 +618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -627,13 +633,14 @@
     <col min="5" max="5" width="16.08984375" style="4" customWidth="1"/>
     <col min="6" max="7" width="16.26953125" style="4" customWidth="1"/>
     <col min="8" max="8" width="9.54296875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="12.1796875" style="4" customWidth="1"/>
-    <col min="10" max="10" width="12" style="4" customWidth="1"/>
-    <col min="11" max="11" width="10.1796875" style="4" customWidth="1"/>
-    <col min="12" max="12" width="13.36328125" customWidth="1"/>
+    <col min="9" max="9" width="14.08984375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="12.1796875" style="4" customWidth="1"/>
+    <col min="11" max="11" width="12" style="4" customWidth="1"/>
+    <col min="12" max="12" width="10.1796875" style="4" customWidth="1"/>
+    <col min="13" max="13" width="13.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -647,8 +654,9 @@
       <c r="I1" s="11"/>
       <c r="J1" s="11"/>
       <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
@@ -672,19 +680,22 @@
         <v>4</v>
       </c>
       <c r="I2" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="K2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="L2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="M2" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="15"/>
       <c r="B3" s="15"/>
       <c r="C3" s="10"/>
@@ -698,11 +709,12 @@
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
-      <c r="J3" s="17"/>
+      <c r="J3" s="10"/>
       <c r="K3" s="17"/>
-      <c r="L3" s="10"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="10"/>
     </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -714,11 +726,12 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="6"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="6"/>
     </row>
-    <row r="5" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -743,20 +756,23 @@
       <c r="H5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="L5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="M5" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -768,14 +784,15 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="6"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="A1:K1"/>
+  <mergeCells count="13">
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="A1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="C2:C3"/>
@@ -783,9 +800,10 @@
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="I2:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
